--- a/assets/templates/import-movie-template-customer-financiers.xlsx
+++ b/assets/templates/import-movie-template-customer-financiers.xlsx
@@ -57,12 +57,32 @@
 (list of choices)</t>
   </si>
   <si>
-    <t xml:space="preserve">Serie
-(number)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Episode Count
-(number)</t>
+    <t xml:space="preserve">Series Number
+(only if content type = serie or documentary)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Episode Count
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(only if content type = serie or documentary)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Production status
@@ -2482,7 +2502,7 @@
     <numFmt numFmtId="165" formatCode="D/M/YYYY"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2580,6 +2600,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2821,7 +2848,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
@@ -2990,11 +3017,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="8" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="8" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3002,31 +3029,31 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="8" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="17" fillId="8" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="8" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="8" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="8" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="17" fillId="8" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="8" borderId="13" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="8" borderId="13" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="8" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="8" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="8" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="8" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3034,7 +3061,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="8" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="18" fillId="8" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="8" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3042,11 +3073,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="8" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="8" borderId="13" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="8" borderId="13" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3054,7 +3081,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3070,7 +3097,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3078,19 +3105,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3098,11 +3125,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3110,7 +3137,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3230,10 +3257,10 @@
   </sheetPr>
   <dimension ref="A1:AMJ105"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A77" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B77" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A77" activeCellId="0" sqref="A77"/>
-      <selection pane="topRight" activeCell="E15" activeCellId="0" sqref="E15:F104"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="E14" activeCellId="0" sqref="E14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13650,7 +13677,7 @@
   <dimension ref="A1:Y257"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E15:F104 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E14:F14 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
